--- a/doc/descriptions/Ставки диограмма.xlsx
+++ b/doc/descriptions/Ставки диограмма.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDSRW_UI\doc\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775A3CA-171F-404F-9772-95D3A7062AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF72B5-886B-4605-B918-3AD3E7BBC841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A063858-1B36-4B0B-98C1-15CCCBDF2145}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A063858-1B36-4B0B-98C1-15CCCBDF2145}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A4:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,9 +700,15 @@
         <v>1</v>
       </c>
       <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="2">
         <v>1</v>
@@ -736,9 +742,15 @@
         <v>1</v>
       </c>
       <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2">
@@ -772,9 +784,15 @@
         <v>1</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="2">
         <v>1</v>
@@ -814,9 +832,15 @@
       <c r="S9" s="2">
         <v>1</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="2">
@@ -840,9 +864,15 @@
       <c r="M10" s="5"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4">
         <v>1</v>
@@ -876,9 +906,15 @@
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="4">
         <v>1</v>
@@ -912,9 +948,15 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="4">
         <v>1</v>
@@ -952,9 +994,15 @@
       <c r="M13" s="2"/>
       <c r="N13" s="5"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4">
         <v>1</v>
